--- a/Data/互通基础参数表-R02.xlsx
+++ b/Data/互通基础参数表-R02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\20230830 萨马尔项目\04 Python\SIDC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42572ED-5A28-49E4-858E-92662376EFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C7679-7F21-4F79-9FFB-13B107DD3B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{25AFF437-AB42-4CAE-9718-2E80A7EED3F7}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25AFF437-AB42-4CAE-9718-2E80A7EED3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="承台参数" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>桩号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,33 @@
   </si>
   <si>
     <t>W4</t>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2-2</t>
   </si>
 </sst>
 </file>
@@ -317,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C908FF6-8EAD-47F0-A34E-6E3EA272681D}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1007,121 +1034,122 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>213.364</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="2">
+        <v>180.364</v>
       </c>
       <c r="D18">
         <v>90</v>
       </c>
       <c r="E18" s="2">
-        <v>4.625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>251.364</v>
+        <v>213.364</v>
       </c>
       <c r="D19">
         <v>90</v>
       </c>
       <c r="E19" s="2">
-        <v>3.3085</v>
+        <v>4.625</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
+        <v>251.364</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.3085</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>322.36399999999998</v>
       </c>
-      <c r="D20">
-        <v>90</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D21">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1">
         <f>0.975-0.5</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>367.36399999999998</v>
       </c>
-      <c r="D21">
-        <v>90</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1">
         <f>1.1082156-0.5</f>
         <v>0.60821560000000008</v>
       </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>407.72800000000001</v>
-      </c>
-      <c r="D22">
-        <v>90</v>
-      </c>
-      <c r="E22">
-        <v>1.4022250999999999</v>
-      </c>
       <c r="G22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>448.428</v>
+        <v>407.72800000000001</v>
       </c>
       <c r="D23">
         <v>90</v>
       </c>
       <c r="E23">
-        <v>3.4239999999999999</v>
+        <v>1.4022250999999999</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -1129,19 +1157,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>301.36399999999998</v>
+        <v>448.428</v>
       </c>
       <c r="D24">
         <v>90</v>
       </c>
       <c r="E24">
-        <v>-1.8501000000000001</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -1149,100 +1177,102 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>213.364</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>251.364</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>301.36399999999998</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>-1.8501000000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>352.56200000000001</v>
       </c>
-      <c r="D25">
-        <v>90</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1">
         <f>-2.023916-0.5</f>
         <v>-2.5239159999999998</v>
       </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>395.56200000000001</v>
-      </c>
-      <c r="D26">
-        <v>90</v>
-      </c>
-      <c r="E26">
-        <v>-1.764084</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>435.56180000000001</v>
-      </c>
-      <c r="D27">
-        <v>90</v>
-      </c>
-      <c r="E27">
-        <v>-1.4750000000000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>465.56180000000001</v>
-      </c>
-      <c r="D28">
-        <v>90</v>
-      </c>
-      <c r="E28">
-        <v>-1.4750000000000001</v>
-      </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29">
-        <v>510.56180000000001</v>
+        <v>395.56200000000001</v>
       </c>
       <c r="D29">
         <v>90</v>
       </c>
       <c r="E29">
-        <v>-1.4750000000000001</v>
+        <v>-1.764084</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -1250,19 +1280,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>184.505</v>
+        <v>435.56180000000001</v>
       </c>
       <c r="D30">
         <v>90</v>
       </c>
       <c r="E30">
-        <v>1.5924124</v>
+        <v>-1.4750000000000001</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -1270,19 +1300,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>219.505</v>
+        <v>465.56180000000001</v>
       </c>
       <c r="D31">
         <v>90</v>
       </c>
       <c r="E31">
-        <v>2.0101</v>
+        <v>-1.4750000000000001</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -1290,186 +1320,266 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>510.56180000000001</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>-1.4750000000000001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>184.505</v>
+      </c>
+      <c r="D33">
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <v>1.5924124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>219.505</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>2.0101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>269.505</v>
       </c>
-      <c r="D32">
-        <v>90</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1">
         <f>2.248311+0.5</f>
         <v>2.7483110000000002</v>
       </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>302.505</v>
       </c>
-      <c r="D33">
-        <v>90</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D36">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1">
         <f>2.248311+0.5</f>
         <v>2.7483110000000002</v>
       </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>332.505</v>
       </c>
-      <c r="D34">
-        <v>90</v>
-      </c>
-      <c r="E34">
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
         <v>2.1024859999999999</v>
       </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>144.38839999999999</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C35">
-        <v>177.38800000000001</v>
-      </c>
-      <c r="D35">
+      <c r="C39">
+        <v>177.38839999999999</v>
+      </c>
+      <c r="D39">
         <f>90+15</f>
         <v>105</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>-1.0421879999999999</v>
       </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
-        <v>234.38800000000001</v>
-      </c>
-      <c r="D36">
-        <v>90</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="C40">
+        <v>234.38839999999999</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40" s="1">
         <f>-0.577051+0.5</f>
         <v>-7.7050999999999981E-2</v>
       </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>279.38799999999998</v>
-      </c>
-      <c r="D37">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="C41">
+        <v>279.38839999999999</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1">
         <f>-0.669667+0.5</f>
         <v>-0.16966700000000001</v>
       </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>319.38839999999999</v>
       </c>
-      <c r="D38">
-        <v>90</v>
-      </c>
-      <c r="E38">
+      <c r="D42">
+        <v>90</v>
+      </c>
+      <c r="E42">
         <v>-1.2746770000000001</v>
       </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <v>364.38839999999999</v>
       </c>
-      <c r="D39">
-        <v>90</v>
-      </c>
-      <c r="E39">
+      <c r="D43">
+        <v>90</v>
+      </c>
+      <c r="E43">
         <v>-1.4750000000000001</v>
       </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>409.38839999999999</v>
       </c>
-      <c r="D40">
-        <v>90</v>
-      </c>
-      <c r="E40">
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="E44">
         <v>-1.4750000000000001</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G44" t="s">
         <v>42</v>
       </c>
     </row>
